--- a/AppBug清单.xlsx
+++ b/AppBug清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CCBB1-AACA-5E44-A348-C298ED7EE529}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62125C53-0475-F44F-A687-8F8A4B6D3FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C5BBDE8-B75B-EE42-9C44-8271523F889F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>离线模式播放文件暂停后再恢复的逻辑是什么样的？是否需要进度条？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只连接手环不连接机械手的情况下做动作，动作识别出来但是页面不显示对应图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,9 +479,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,6 +507,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A6324-A73B-D340-B5A9-0639CBDC037B}">
   <dimension ref="C1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -844,19 +851,19 @@
   <sheetData>
     <row r="1" spans="3:20" ht="36" customHeight="1"/>
     <row r="2" spans="3:20" ht="72" customHeight="1">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -919,7 +926,7 @@
       <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -954,7 +961,7 @@
       <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -983,7 +990,7 @@
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1012,7 +1019,7 @@
       <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -1023,33 +1030,33 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="3:20" ht="45" customHeight="1">
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>43635</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="3:20" ht="43" customHeight="1">
       <c r="C9" s="8">
@@ -1070,7 +1077,7 @@
       <c r="H9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -1081,33 +1088,33 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="3:20" ht="48" customHeight="1">
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>7</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>43635</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="25"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="3:20" ht="63" customHeight="1">
       <c r="C11" s="8">
@@ -1128,7 +1135,7 @@
       <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1139,33 +1146,33 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:20" ht="43" customHeight="1">
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>9</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>43635</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="25"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="3:20" ht="49" customHeight="1">
       <c r="C13" s="8">
@@ -1186,7 +1193,7 @@
       <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -1196,20 +1203,34 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="3:20" ht="25" customHeight="1">
-      <c r="C14" s="20">
+    <row r="14" spans="3:20" ht="56" customHeight="1">
+      <c r="C14" s="19">
         <v>11</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="25"/>
+      <c r="D14" s="20">
+        <v>43636</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="3:20" ht="18">
       <c r="C15" s="8">

--- a/AppBug清单.xlsx
+++ b/AppBug清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62125C53-0475-F44F-A687-8F8A4B6D3FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9850A-C587-BD49-8EB1-CF7F4A5CB376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C5BBDE8-B75B-EE42-9C44-8271523F889F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>候天瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +205,61 @@
   </si>
   <si>
     <t>只连接手环不连接机械手的情况下做动作，动作识别出来但是页面不显示对应图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别模式存储数据满后，是否有做保护的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯天瑞</t>
+  </si>
+  <si>
+    <t>侯天瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下为修改后提测版本中发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手臂的开关，每隔一次打开就提示5s后再尝试。建议是连续开启五次后，再提示五秒后操作，且提示中的5s需修改成5秒，否则用户不知道5s是什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题8未修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别模式页面，滑动切换的小圆点顺序反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别页面，小圆点切换页面或点击查看emg/accl数据时，识别模式自动停止识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存储新建文件后保存，等很久后也没有数据存入，一直显示0B大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线模式读本地文件，同一文件每次读的结果都不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线模式当前一次只能读一个文件，想再读其他文件，必须切换成在线模式再切换成离线模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线模式读文件，当前逻辑需要断开手环，是否需要断开手环？如果不应断开手环，须算法配合修改变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线模式下，新建一个文件存入数据，再立即新建第二个文件存数据，当前逻辑是两个都在存，应修改成只存入第二个文件，停止存入第一个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次进入离线模式，进度条都还在上次结束的位置，应重置归位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +341,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -317,12 +394,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -335,9 +421,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -350,9 +434,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -365,8 +447,28 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -375,52 +477,223 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.59996337778862885"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="6" tint="0.59996337778862885"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.59996337778862885"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="6" tint="0.59996337778862885"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
       <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,90 +703,204 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A6324-A73B-D340-B5A9-0639CBDC037B}">
-  <dimension ref="C1:T16"/>
+  <dimension ref="C1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -851,19 +1238,19 @@
   <sheetData>
     <row r="1" spans="3:20" ht="36" customHeight="1"/>
     <row r="2" spans="3:20" ht="72" customHeight="1">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -873,398 +1260,755 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="3:20" ht="34" customHeight="1">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="76">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43633</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L4" s="14">
+        <v>43634</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" ht="35" customHeight="1">
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>43633</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="3:20" ht="35" customHeight="1">
+      <c r="C6" s="22">
         <v>3</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="D6" s="23">
+        <v>43633</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="3:20" ht="35" customHeight="1">
+      <c r="C7" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:20" ht="76">
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D7" s="17">
         <v>43633</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="3:20" ht="45" customHeight="1">
+      <c r="C8" s="28">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>43635</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="3:20" ht="43" customHeight="1">
+      <c r="C9" s="16">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43635</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="3:20" ht="48" customHeight="1">
+      <c r="C10" s="28">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29">
+        <v>43635</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="3:20" ht="63" customHeight="1">
+      <c r="C11" s="16">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
+        <v>43635</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="3:20" ht="43" customHeight="1">
+      <c r="C12" s="28">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="D12" s="29">
+        <v>43635</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="3:20" ht="49" customHeight="1">
+      <c r="C13" s="16">
+        <v>10</v>
+      </c>
+      <c r="D13" s="17">
+        <v>43635</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="3:20" ht="56" customHeight="1">
+      <c r="C14" s="28">
         <v>11</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="D14" s="29">
+        <v>43636</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="3:20" ht="37" customHeight="1">
+      <c r="C15" s="37">
+        <v>12</v>
+      </c>
+      <c r="D15" s="38">
+        <v>43636</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="3:20" ht="26" customHeight="1">
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="3:13" ht="38">
+      <c r="C17" s="43">
+        <v>13</v>
+      </c>
+      <c r="D17" s="44">
+        <v>43664</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="3:13" ht="57">
+      <c r="C18" s="49">
+        <v>14</v>
+      </c>
+      <c r="D18" s="50">
+        <v>43668</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="3:13" ht="48" customHeight="1">
+      <c r="C19" s="55">
+        <v>15</v>
+      </c>
+      <c r="D19" s="56">
+        <v>43668</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+    </row>
+    <row r="20" spans="3:13" ht="48" customHeight="1">
+      <c r="C20" s="49">
+        <v>16</v>
+      </c>
+      <c r="D20" s="50">
+        <v>43668</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="3:13" ht="38">
+      <c r="C21" s="55">
+        <v>17</v>
+      </c>
+      <c r="D21" s="56">
+        <v>43668</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="3:13" ht="42" customHeight="1">
+      <c r="C22" s="49">
+        <v>18</v>
+      </c>
+      <c r="D22" s="50">
+        <v>43668</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="3:13" ht="38">
+      <c r="C23" s="55">
         <v>19</v>
       </c>
-      <c r="L4" s="2">
-        <v>43634</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" ht="35" customHeight="1">
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>43633</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="D23" s="56">
+        <v>43668</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="3:13" ht="57">
+      <c r="C24" s="49">
+        <v>20</v>
+      </c>
+      <c r="D24" s="50">
+        <v>43668</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="3:13" ht="42" customHeight="1">
+      <c r="C25" s="55">
+        <v>21</v>
+      </c>
+      <c r="D25" s="56">
+        <v>43668</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="3:20" ht="35" customHeight="1">
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>43633</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="J25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+    </row>
+    <row r="26" spans="3:13" ht="38">
+      <c r="C26" s="49">
         <v>22</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="3:20" ht="35" customHeight="1">
-      <c r="C7" s="8">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9">
-        <v>43633</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="3:20" ht="45" customHeight="1">
-      <c r="C8" s="19">
-        <v>5</v>
-      </c>
-      <c r="D8" s="20">
-        <v>43635</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="D26" s="50">
+        <v>43668</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="3:20" ht="43" customHeight="1">
-      <c r="C9" s="8">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9">
-        <v>43635</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="3:20" ht="48" customHeight="1">
-      <c r="C10" s="19">
-        <v>7</v>
-      </c>
-      <c r="D10" s="20">
-        <v>43635</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="3:20" ht="63" customHeight="1">
-      <c r="C11" s="8">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9">
-        <v>43635</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="3:20" ht="43" customHeight="1">
-      <c r="C12" s="19">
-        <v>9</v>
-      </c>
-      <c r="D12" s="20">
-        <v>43635</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="3:20" ht="49" customHeight="1">
-      <c r="C13" s="8">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
-        <v>43635</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="3:20" ht="56" customHeight="1">
-      <c r="C14" s="19">
-        <v>11</v>
-      </c>
-      <c r="D14" s="20">
-        <v>43636</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="3:20" ht="18">
-      <c r="C15" s="8">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="3:20" ht="18">
-      <c r="C16" s="4">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3"/>
+      <c r="J26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="3:13" ht="18">
+      <c r="C27" s="49"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" spans="3:13" ht="18">
+      <c r="C28" s="49"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="3:13" ht="18">
+      <c r="C29" s="49"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="3:13" ht="18">
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AppBug清单.xlsx
+++ b/AppBug清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9850A-C587-BD49-8EB1-CF7F4A5CB376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1D1FF-B48D-0648-A2BB-2245758A1024}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C5BBDE8-B75B-EE42-9C44-8271523F889F}"/>
   </bookViews>
@@ -351,7 +351,6 @@
       <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -703,23 +702,185 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,177 +890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A6324-A73B-D340-B5A9-0639CBDC037B}">
   <dimension ref="C1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1238,19 +1228,19 @@
   <sheetData>
     <row r="1" spans="3:20" ht="36" customHeight="1"/>
     <row r="2" spans="3:20" ht="72" customHeight="1">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1260,750 +1250,750 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="3:20" ht="34" customHeight="1">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:20" ht="76">
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>43633</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>43634</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:20" ht="35" customHeight="1">
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>43633</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="3:20" ht="35" customHeight="1">
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="19">
         <v>43633</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="3:20" ht="35" customHeight="1">
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>4</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>43633</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="21"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="3:20" ht="45" customHeight="1">
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>43635</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="33"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="3:20" ht="43" customHeight="1">
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>43635</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="21"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="3:20" ht="48" customHeight="1">
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>7</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>43635</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="33"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="3:20" ht="63" customHeight="1">
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>8</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>43635</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="21"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="3:20" ht="43" customHeight="1">
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>9</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <v>43635</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="33"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="3:20" ht="49" customHeight="1">
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>43635</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="3:20" ht="56" customHeight="1">
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>11</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>43636</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="33"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="3:20" ht="37" customHeight="1">
-      <c r="C15" s="37">
+      <c r="C15" s="33">
         <v>12</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="34">
         <v>43636</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="42"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="3:20" ht="26" customHeight="1">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="3:13" ht="38">
-      <c r="C17" s="43">
+      <c r="C17" s="39">
         <v>13</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="13">
         <v>43664</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="48"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="3:13" ht="57">
-      <c r="C18" s="49">
+      <c r="C18" s="44">
         <v>14</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="25">
         <v>43668</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="3:13" ht="48" customHeight="1">
-      <c r="C19" s="55">
+      <c r="C19" s="49">
         <v>15</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="13">
         <v>43668</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="3:13" ht="48" customHeight="1">
-      <c r="C20" s="49">
+      <c r="C20" s="44">
         <v>16</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="25">
         <v>43668</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="3:13" ht="38">
-      <c r="C21" s="55">
+      <c r="C21" s="49">
         <v>17</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="13">
         <v>43668</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="3:13" ht="42" customHeight="1">
-      <c r="C22" s="49">
+      <c r="C22" s="44">
         <v>18</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="25">
         <v>43668</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="48"/>
     </row>
     <row r="23" spans="3:13" ht="38">
-      <c r="C23" s="55">
+      <c r="C23" s="49">
         <v>19</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="13">
         <v>43668</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="3:13" ht="57">
-      <c r="C24" s="49">
+      <c r="C24" s="44">
         <v>20</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="25">
         <v>43668</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="3:13" ht="42" customHeight="1">
-      <c r="C25" s="55">
+      <c r="C25" s="49">
         <v>21</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="13">
         <v>43668</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="3:13" ht="38">
-      <c r="C26" s="49">
+      <c r="C26" s="44">
         <v>22</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="25">
         <v>43668</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="3:13" ht="18">
-      <c r="C27" s="49"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="3:13" ht="18">
-      <c r="C28" s="49"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="3:13" ht="18">
-      <c r="C29" s="49"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="3:13" ht="18">
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="65"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
